--- a/Code/Results/Cases/Case_7_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_52/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.96156406641915</v>
+        <v>20.96156406641917</v>
       </c>
       <c r="C2">
-        <v>14.32746209681931</v>
+        <v>14.32746209681943</v>
       </c>
       <c r="D2">
-        <v>5.071105511336353</v>
+        <v>5.071105511336349</v>
       </c>
       <c r="E2">
-        <v>5.268568919671836</v>
+        <v>5.268568919671844</v>
       </c>
       <c r="F2">
-        <v>65.14968790916899</v>
+        <v>65.1496879091692</v>
       </c>
       <c r="G2">
-        <v>2.108682865247411</v>
+        <v>2.108682865247692</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.581191666317928</v>
+        <v>6.581191666317975</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.63469933315925</v>
+        <v>13.63469933315918</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.42957174938203</v>
+        <v>19.42957174938202</v>
       </c>
       <c r="C3">
-        <v>13.2411234996336</v>
+        <v>13.24112349963352</v>
       </c>
       <c r="D3">
-        <v>4.761396258118779</v>
+        <v>4.761396258118858</v>
       </c>
       <c r="E3">
-        <v>5.335076930743716</v>
+        <v>5.335076930743599</v>
       </c>
       <c r="F3">
-        <v>61.80480570046263</v>
+        <v>61.80480570046271</v>
       </c>
       <c r="G3">
-        <v>2.123672152690763</v>
+        <v>2.123672152690627</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.532186019422221</v>
+        <v>6.532186019422307</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.07786660375858</v>
+        <v>13.07786660375859</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.57542783153252</v>
+        <v>18.57542783153249</v>
       </c>
       <c r="C4">
-        <v>12.54900696344778</v>
+        <v>12.54900696344787</v>
       </c>
       <c r="D4">
-        <v>4.565830569108599</v>
+        <v>4.565830569108524</v>
       </c>
       <c r="E4">
-        <v>5.378008433709362</v>
+        <v>5.378008433709429</v>
       </c>
       <c r="F4">
-        <v>59.72018351451314</v>
+        <v>59.72018351451302</v>
       </c>
       <c r="G4">
-        <v>2.133007677815169</v>
+        <v>2.133007677815314</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.504658406194603</v>
+        <v>6.504658406194578</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.74302448838233</v>
+        <v>12.74302448838228</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.22250972976256</v>
+        <v>18.22250972976258</v>
       </c>
       <c r="C5">
-        <v>12.26047295930493</v>
+        <v>12.26047295930492</v>
       </c>
       <c r="D5">
-        <v>4.484750170409574</v>
+        <v>4.484750170409519</v>
       </c>
       <c r="E5">
-        <v>5.396036133742611</v>
+        <v>5.396036133742672</v>
       </c>
       <c r="F5">
-        <v>58.86317754368461</v>
+        <v>58.86317754368431</v>
       </c>
       <c r="G5">
-        <v>2.136851001236699</v>
+        <v>2.136851001236704</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.494049962249806</v>
+        <v>6.494049962249712</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.60843206948572</v>
+        <v>12.60843206948573</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.16362073193817</v>
+        <v>18.16362073193815</v>
       </c>
       <c r="C6">
         <v>12.21216573918208</v>
       </c>
       <c r="D6">
-        <v>4.471202642341985</v>
+        <v>4.471202642341905</v>
       </c>
       <c r="E6">
-        <v>5.399061964830691</v>
+        <v>5.39906196483089</v>
       </c>
       <c r="F6">
-        <v>58.7204303433723</v>
+        <v>58.720430343372</v>
       </c>
       <c r="G6">
         <v>2.137491697532751</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.492324267095611</v>
+        <v>6.492324267095684</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.58619832465576</v>
+        <v>12.58619832465585</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.5706876468631</v>
+        <v>18.57068764686311</v>
       </c>
       <c r="C7">
-        <v>12.54514217725454</v>
+        <v>12.54514217725449</v>
       </c>
       <c r="D7">
-        <v>4.564742726010429</v>
+        <v>4.56474272601046</v>
       </c>
       <c r="E7">
-        <v>5.37824939680982</v>
+        <v>5.378249396809812</v>
       </c>
       <c r="F7">
-        <v>59.70865553975542</v>
+        <v>59.70865553975564</v>
       </c>
       <c r="G7">
-        <v>2.13305934497525</v>
+        <v>2.133059344975111</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.50451291423972</v>
+        <v>6.504512914239719</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.74120167180235</v>
+        <v>12.7412016718024</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43722122777665</v>
+        <v>20.43722122777661</v>
       </c>
       <c r="C8">
-        <v>13.95797937927325</v>
+        <v>13.95797937927328</v>
       </c>
       <c r="D8">
-        <v>4.965417774541359</v>
+        <v>4.965417774541279</v>
       </c>
       <c r="E8">
-        <v>5.291069619792624</v>
+        <v>5.291069619792773</v>
       </c>
       <c r="F8">
-        <v>64.00286143874084</v>
+        <v>64.00286143874034</v>
       </c>
       <c r="G8">
-        <v>2.113827471737941</v>
+        <v>2.113827471738066</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.563740780654606</v>
+        <v>6.563740780654652</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.4412801838598</v>
+        <v>13.44128018385985</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.09469295109156</v>
+        <v>24.09469295109162</v>
       </c>
       <c r="C9">
-        <v>16.54009762989052</v>
+        <v>16.54009762989059</v>
       </c>
       <c r="D9">
-        <v>5.710393614683132</v>
+        <v>5.710393614683187</v>
       </c>
       <c r="E9">
-        <v>5.136455634112642</v>
+        <v>5.136455634112577</v>
       </c>
       <c r="F9">
-        <v>72.17976923147576</v>
+        <v>72.17976923147604</v>
       </c>
       <c r="G9">
-        <v>2.076860580196811</v>
+        <v>2.076860580196818</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.701973624347754</v>
+        <v>6.701973624347675</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.22225016844988</v>
+        <v>15.22225016844993</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>26.63391961417215</v>
       </c>
       <c r="C10">
-        <v>18.34143378438008</v>
+        <v>18.34143378438009</v>
       </c>
       <c r="D10">
-        <v>6.237260855510805</v>
+        <v>6.237260855510889</v>
       </c>
       <c r="E10">
-        <v>5.032408316382996</v>
+        <v>5.032408316382794</v>
       </c>
       <c r="F10">
-        <v>78.05878783945056</v>
+        <v>78.05878783945069</v>
       </c>
       <c r="G10">
-        <v>2.049663480482402</v>
+        <v>2.049663480482133</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.819806456792824</v>
+        <v>6.819806456792782</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.83196539200477</v>
+        <v>16.83196539200479</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.76360030779614</v>
+        <v>27.76360030779637</v>
       </c>
       <c r="C11">
-        <v>19.14576031663972</v>
+        <v>19.14576031663973</v>
       </c>
       <c r="D11">
-        <v>6.473922583518243</v>
+        <v>6.473922583518221</v>
       </c>
       <c r="E11">
-        <v>4.987046332058137</v>
+        <v>4.987046332058275</v>
       </c>
       <c r="F11">
-        <v>80.71575434387458</v>
+        <v>80.71575434387535</v>
       </c>
       <c r="G11">
-        <v>2.037146232089281</v>
+        <v>2.037146232089548</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.877703090147716</v>
+        <v>6.87770309014773</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.54625773850181</v>
+        <v>17.54625773850188</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.18843648770152</v>
+        <v>28.18843648770134</v>
       </c>
       <c r="C12">
-        <v>19.44876243461119</v>
+        <v>19.44876243461109</v>
       </c>
       <c r="D12">
-        <v>6.563263695026084</v>
+        <v>6.563263695025956</v>
       </c>
       <c r="E12">
-        <v>4.970142833298944</v>
+        <v>4.970142833298998</v>
       </c>
       <c r="F12">
-        <v>81.72069656888935</v>
+        <v>81.72069656888891</v>
       </c>
       <c r="G12">
-        <v>2.032371314022609</v>
+        <v>2.032371314022747</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.900321571824497</v>
+        <v>6.900321571824501</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.8146383578767</v>
+        <v>17.81463835787659</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.0970586581503</v>
+        <v>28.0970586581505</v>
       </c>
       <c r="C13">
-        <v>19.38356490063272</v>
+        <v>19.38356490063267</v>
       </c>
       <c r="D13">
-        <v>6.544031952501659</v>
+        <v>6.544031952501859</v>
       </c>
       <c r="E13">
-        <v>4.973771270622361</v>
+        <v>4.973771270622279</v>
       </c>
       <c r="F13">
-        <v>81.50429184913104</v>
+        <v>81.50429184913179</v>
       </c>
       <c r="G13">
-        <v>2.033401484214715</v>
+        <v>2.033401484214711</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.895418017523058</v>
+        <v>6.895418017523093</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.7569228608019</v>
+        <v>17.75692286080193</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>27.7986063434977</v>
       </c>
       <c r="C14">
-        <v>19.17071627196605</v>
+        <v>19.17071627196615</v>
       </c>
       <c r="D14">
-        <v>6.481277268859928</v>
+        <v>6.481277268859984</v>
       </c>
       <c r="E14">
-        <v>4.985650233826823</v>
+        <v>4.985650233826872</v>
       </c>
       <c r="F14">
-        <v>80.79844641950251</v>
+        <v>80.79844641950281</v>
       </c>
       <c r="G14">
-        <v>2.036754186644743</v>
+        <v>2.036754186645002</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.879549519668939</v>
+        <v>6.879549519668974</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.56837672079969</v>
+        <v>17.5683767207997</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.61543519380064</v>
+        <v>27.61543519380054</v>
       </c>
       <c r="C15">
-        <v>19.04015449763977</v>
+        <v>19.04015449763991</v>
       </c>
       <c r="D15">
-        <v>6.442807317436571</v>
+        <v>6.442807317436563</v>
       </c>
       <c r="E15">
-        <v>4.992961848423612</v>
+        <v>4.992961848423552</v>
       </c>
       <c r="F15">
-        <v>80.36598650920713</v>
+        <v>80.36598650920698</v>
       </c>
       <c r="G15">
-        <v>2.038802803987117</v>
+        <v>2.038802803987367</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.869922549486152</v>
+        <v>6.869922549486137</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.4526282039476</v>
+        <v>17.45262820394755</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.55963770934561</v>
+        <v>26.55963770934565</v>
       </c>
       <c r="C16">
-        <v>18.28861309830954</v>
+        <v>18.28861309830942</v>
       </c>
       <c r="D16">
-        <v>6.221746324133555</v>
+        <v>6.221746324133571</v>
       </c>
       <c r="E16">
-        <v>5.035411705963027</v>
+        <v>5.035411705963078</v>
       </c>
       <c r="F16">
-        <v>77.88490093809089</v>
+        <v>77.88490093809106</v>
       </c>
       <c r="G16">
-        <v>2.050477452239242</v>
+        <v>2.050477452239107</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.816115429764863</v>
+        <v>6.816115429764849</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.78496189582335</v>
+        <v>16.78496189582336</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>25.90588485988322</v>
       </c>
       <c r="C17">
-        <v>17.82408188358115</v>
+        <v>17.82408188358101</v>
       </c>
       <c r="D17">
-        <v>6.085460665731674</v>
+        <v>6.085460665731665</v>
       </c>
       <c r="E17">
-        <v>5.061951612715226</v>
+        <v>5.061951612715295</v>
       </c>
       <c r="F17">
-        <v>76.35917771279757</v>
+        <v>76.35917771279789</v>
       </c>
       <c r="G17">
-        <v>2.057593125744777</v>
+        <v>2.057593125744654</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.784256667096835</v>
+        <v>6.784256667096853</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.37107980263905</v>
+        <v>16.37107980263907</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.52741989092789</v>
+        <v>25.52741989092791</v>
       </c>
       <c r="C18">
-        <v>17.55543150016248</v>
+        <v>17.55543150016251</v>
       </c>
       <c r="D18">
-        <v>6.006777915644451</v>
+        <v>6.00677791564452</v>
       </c>
       <c r="E18">
-        <v>5.077402659987325</v>
+        <v>5.07740265998726</v>
       </c>
       <c r="F18">
-        <v>75.47988004691794</v>
+        <v>75.47988004691818</v>
       </c>
       <c r="G18">
-        <v>2.061673191276975</v>
+        <v>2.061673191276713</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.766331183052261</v>
+        <v>6.766331183052274</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.13130058436361</v>
+        <v>16.13130058436364</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.39883931341175</v>
+        <v>25.39883931341176</v>
       </c>
       <c r="C19">
-        <v>17.46420344748717</v>
+        <v>17.4642034474872</v>
       </c>
       <c r="D19">
-        <v>5.980082477743631</v>
+        <v>5.980082477743633</v>
       </c>
       <c r="E19">
-        <v>5.0826663257758</v>
+        <v>5.082666325775746</v>
       </c>
       <c r="F19">
-        <v>75.18183240863823</v>
+        <v>75.18183240863826</v>
       </c>
       <c r="G19">
-        <v>2.063052838318865</v>
+        <v>2.063052838318979</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.760328303719289</v>
+        <v>6.76032830371929</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.97572622708815</v>
+        <v>25.97572622708818</v>
       </c>
       <c r="C20">
-        <v>17.87367966054511</v>
+        <v>17.87367966054528</v>
       </c>
       <c r="D20">
-        <v>6.099998007995904</v>
+        <v>6.099998007995962</v>
       </c>
       <c r="E20">
-        <v>5.059107207464853</v>
+        <v>5.059107207464849</v>
       </c>
       <c r="F20">
         <v>76.52176565206888</v>
       </c>
       <c r="G20">
-        <v>2.05683705582196</v>
+        <v>2.056837055822091</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.78760629693744</v>
+        <v>6.787606296937419</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.41531362273122</v>
+        <v>16.41531362273129</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.88634266278647</v>
+        <v>27.88634266278657</v>
       </c>
       <c r="C21">
-        <v>19.23327255982789</v>
+        <v>19.23327255982782</v>
       </c>
       <c r="D21">
-        <v>6.499715947847894</v>
+        <v>6.499715947848062</v>
       </c>
       <c r="E21">
-        <v>4.982153733535172</v>
+        <v>4.982153733535206</v>
       </c>
       <c r="F21">
-        <v>81.00579013309741</v>
+        <v>81.00579013309783</v>
       </c>
       <c r="G21">
-        <v>2.035770489776178</v>
+        <v>2.035770489776062</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.884190954643375</v>
+        <v>6.884190954643363</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.62381018967674</v>
+        <v>17.62381018967675</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.1182968168252</v>
+        <v>29.11829681682533</v>
       </c>
       <c r="C22">
-        <v>20.11301550647917</v>
+        <v>20.11301550647922</v>
       </c>
       <c r="D22">
-        <v>6.75943761897915</v>
+        <v>6.75943761897932</v>
       </c>
       <c r="E22">
-        <v>4.933452783627656</v>
+        <v>4.933452783627728</v>
       </c>
       <c r="F22">
-        <v>83.93033665494815</v>
+        <v>83.93033665494923</v>
       </c>
       <c r="G22">
-        <v>2.021790130812755</v>
+        <v>2.021790130812764</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.951408406368757</v>
+        <v>6.95140840636876</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.4016479992501</v>
+        <v>18.40164799925012</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.46203586752858</v>
+        <v>28.46203586752856</v>
       </c>
       <c r="C23">
-        <v>19.64405709512219</v>
+        <v>19.64405709512222</v>
       </c>
       <c r="D23">
-        <v>6.620896535280714</v>
+        <v>6.620896535280646</v>
       </c>
       <c r="E23">
-        <v>4.959302988267676</v>
+        <v>4.959302988267734</v>
       </c>
       <c r="F23">
-        <v>82.36945281175024</v>
+        <v>82.36945281175018</v>
       </c>
       <c r="G23">
-        <v>2.029276524815645</v>
+        <v>2.029276524815912</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.98741462882157</v>
+        <v>17.98741462882155</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.94415913723061</v>
+        <v>25.94415913723077</v>
       </c>
       <c r="C24">
-        <v>17.85126148592799</v>
+        <v>17.8512614859281</v>
       </c>
       <c r="D24">
-        <v>6.093426715502788</v>
+        <v>6.09342671550271</v>
       </c>
       <c r="E24">
-        <v>5.060392561555662</v>
+        <v>5.06039256155574</v>
       </c>
       <c r="F24">
-        <v>76.44826640048508</v>
+        <v>76.44826640048487</v>
       </c>
       <c r="G24">
-        <v>2.057178907753909</v>
+        <v>2.05717890775365</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.786090718401468</v>
+        <v>6.786090718401459</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.39532125635762</v>
+        <v>16.39532125635773</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.13311646884196</v>
+        <v>23.13311646884183</v>
       </c>
       <c r="C25">
-        <v>15.86000862615949</v>
+        <v>15.86000862615961</v>
       </c>
       <c r="D25">
-        <v>5.512846434764231</v>
+        <v>5.512846434764145</v>
       </c>
       <c r="E25">
-        <v>5.176574195216602</v>
+        <v>5.176574195216614</v>
       </c>
       <c r="F25">
-        <v>69.99272938721782</v>
+        <v>69.99272938721741</v>
       </c>
       <c r="G25">
-        <v>2.08682739078107</v>
+        <v>2.086827390780939</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.661946521253058</v>
+        <v>6.661946521253053</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.96156406641917</v>
+        <v>20.91410276621059</v>
       </c>
       <c r="C2">
-        <v>14.32746209681943</v>
+        <v>16.16232405702057</v>
       </c>
       <c r="D2">
-        <v>5.071105511336349</v>
+        <v>5.694457402208319</v>
       </c>
       <c r="E2">
-        <v>5.268568919671844</v>
+        <v>9.141693192031939</v>
       </c>
       <c r="F2">
-        <v>65.1496879091692</v>
+        <v>26.92693446145916</v>
       </c>
       <c r="G2">
-        <v>2.108682865247692</v>
+        <v>33.5453499938777</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.746753747552329</v>
       </c>
       <c r="J2">
-        <v>6.581191666317975</v>
+        <v>11.01971836791249</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.25721390419963</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.484655516071189</v>
       </c>
       <c r="M2">
-        <v>13.63469933315918</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.66337284337971</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.42957174938202</v>
+        <v>19.52654856917403</v>
       </c>
       <c r="C3">
-        <v>13.24112349963352</v>
+        <v>15.08531489651622</v>
       </c>
       <c r="D3">
-        <v>4.761396258118858</v>
+        <v>5.485624358910733</v>
       </c>
       <c r="E3">
-        <v>5.335076930743599</v>
+        <v>8.842444863933171</v>
       </c>
       <c r="F3">
-        <v>61.80480570046271</v>
+        <v>26.21261063866601</v>
       </c>
       <c r="G3">
-        <v>2.123672152690627</v>
+        <v>32.39709737771145</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.045324485454705</v>
       </c>
       <c r="J3">
-        <v>6.532186019422307</v>
+        <v>10.92593416677811</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.31898879423413</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.368176474740986</v>
       </c>
       <c r="M3">
-        <v>13.07786660375859</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.79399832034382</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.57542783153249</v>
+        <v>18.62436734379286</v>
       </c>
       <c r="C4">
-        <v>12.54900696344787</v>
+        <v>14.38523791308399</v>
       </c>
       <c r="D4">
-        <v>4.565830569108524</v>
+        <v>5.353384956316887</v>
       </c>
       <c r="E4">
-        <v>5.378008433709429</v>
+        <v>8.653069016870667</v>
       </c>
       <c r="F4">
-        <v>59.72018351451302</v>
+        <v>25.78327300161139</v>
       </c>
       <c r="G4">
-        <v>2.133007677815314</v>
+        <v>31.70490508800161</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.234359263416038</v>
       </c>
       <c r="J4">
-        <v>6.504658406194578</v>
+        <v>10.87561604566007</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.37101381365372</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.294698852714417</v>
       </c>
       <c r="M4">
-        <v>12.74302448838228</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.23540359397373</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.22250972976258</v>
+        <v>18.24402685929118</v>
       </c>
       <c r="C5">
-        <v>12.26047295930492</v>
+        <v>14.09014291060476</v>
       </c>
       <c r="D5">
-        <v>4.484750170409519</v>
+        <v>5.298517768006258</v>
       </c>
       <c r="E5">
-        <v>5.396036133742672</v>
+        <v>8.57449908787442</v>
       </c>
       <c r="F5">
-        <v>58.86317754368431</v>
+        <v>25.61077985446645</v>
       </c>
       <c r="G5">
-        <v>2.136851001236704</v>
+        <v>31.42635635736919</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.312864677641331</v>
       </c>
       <c r="J5">
-        <v>6.494049962249712</v>
+        <v>10.85688548433489</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.39557380592463</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.264258653427021</v>
       </c>
       <c r="M5">
-        <v>12.60843206948573</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.0016744969099</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.16362073193815</v>
+        <v>18.1801030488138</v>
       </c>
       <c r="C6">
-        <v>12.21216573918208</v>
+        <v>14.04054872371447</v>
       </c>
       <c r="D6">
-        <v>4.471202642341905</v>
+        <v>5.289349025686716</v>
       </c>
       <c r="E6">
-        <v>5.39906196483089</v>
+        <v>8.561368860096294</v>
       </c>
       <c r="F6">
-        <v>58.720430343372</v>
+        <v>25.58229037400459</v>
       </c>
       <c r="G6">
-        <v>2.137491697532751</v>
+        <v>31.38032527153656</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.32599038347609</v>
       </c>
       <c r="J6">
-        <v>6.492324267095684</v>
+        <v>10.85388087268864</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.39984956485753</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.259173908211915</v>
       </c>
       <c r="M6">
-        <v>12.58619832465585</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.96250040758193</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.57068764686311</v>
+        <v>18.61928942297509</v>
       </c>
       <c r="C7">
-        <v>12.54514217725449</v>
+        <v>14.38129793990566</v>
       </c>
       <c r="D7">
-        <v>4.56474272601046</v>
+        <v>5.352648915326833</v>
       </c>
       <c r="E7">
-        <v>5.378249396809812</v>
+        <v>8.652015025251306</v>
       </c>
       <c r="F7">
-        <v>59.70865553975564</v>
+        <v>25.78093653632417</v>
       </c>
       <c r="G7">
-        <v>2.133059344975111</v>
+        <v>31.70113381127299</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.235412007405841</v>
       </c>
       <c r="J7">
-        <v>6.504512914239719</v>
+        <v>10.87535632540726</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.3713316768735</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.294290345664773</v>
       </c>
       <c r="M7">
-        <v>12.7412016718024</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.23227592186926</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43722122777661</v>
+        <v>20.44605496578221</v>
       </c>
       <c r="C8">
-        <v>13.95797937927328</v>
+        <v>15.79898817674807</v>
       </c>
       <c r="D8">
-        <v>4.965417774541279</v>
+        <v>5.623302013847926</v>
       </c>
       <c r="E8">
-        <v>5.291069619792773</v>
+        <v>9.039692237933647</v>
       </c>
       <c r="F8">
-        <v>64.00286143874034</v>
+        <v>26.6787957287333</v>
       </c>
       <c r="G8">
-        <v>2.113827471738066</v>
+        <v>33.14694235677238</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.848537884909746</v>
       </c>
       <c r="J8">
-        <v>6.563740780654652</v>
+        <v>10.98584279575719</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.27547568937953</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.444896938989843</v>
       </c>
       <c r="M8">
-        <v>13.44128018385985</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.36883114783236</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.09469295109162</v>
+        <v>23.63313987383903</v>
       </c>
       <c r="C9">
-        <v>16.54009762989059</v>
+        <v>18.27393316580421</v>
       </c>
       <c r="D9">
-        <v>5.710393614683187</v>
+        <v>6.121120749446914</v>
       </c>
       <c r="E9">
-        <v>5.136455634112577</v>
+        <v>9.754637936609216</v>
       </c>
       <c r="F9">
-        <v>72.17976923147604</v>
+        <v>28.5071098594532</v>
       </c>
       <c r="G9">
-        <v>2.076860580196818</v>
+        <v>36.07182446132672</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.977354685421505</v>
       </c>
       <c r="J9">
-        <v>6.701973624347675</v>
+        <v>11.26237429158107</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.20785257164674</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.724964717963002</v>
       </c>
       <c r="M9">
-        <v>15.22225016844993</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.39643086083943</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.63391961417215</v>
+        <v>25.7586997890175</v>
       </c>
       <c r="C10">
-        <v>18.34143378438009</v>
+        <v>19.88760534458756</v>
       </c>
       <c r="D10">
-        <v>6.237260855510889</v>
+        <v>6.422198287400257</v>
       </c>
       <c r="E10">
-        <v>5.032408316382794</v>
+        <v>10.11783352699733</v>
       </c>
       <c r="F10">
-        <v>78.05878783945069</v>
+        <v>29.60531956433475</v>
       </c>
       <c r="G10">
-        <v>2.049663480482133</v>
+        <v>37.87005772648492</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.452237519751352</v>
       </c>
       <c r="J10">
-        <v>6.819806456792782</v>
+        <v>11.42422449504922</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.10283844303134</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.863214478524768</v>
       </c>
       <c r="M10">
-        <v>16.83196539200479</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.66289622900216</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.76360030779637</v>
+        <v>26.84966150320162</v>
       </c>
       <c r="C11">
-        <v>19.14576031663973</v>
+        <v>20.3919684485125</v>
       </c>
       <c r="D11">
-        <v>6.473922583518221</v>
+        <v>6.188018719712528</v>
       </c>
       <c r="E11">
-        <v>4.987046332058275</v>
+        <v>9.239927128762963</v>
       </c>
       <c r="F11">
-        <v>80.71575434387535</v>
+        <v>27.70469449993251</v>
       </c>
       <c r="G11">
-        <v>2.037146232089548</v>
+        <v>35.33001517825483</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.245148412555107</v>
       </c>
       <c r="J11">
-        <v>6.87770309014773</v>
+        <v>10.80885286907607</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.86750806150414</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.510408095210542</v>
       </c>
       <c r="M11">
-        <v>17.54625773850188</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.38121733027098</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.18843648770134</v>
+        <v>27.3427989881287</v>
       </c>
       <c r="C12">
-        <v>19.44876243461109</v>
+        <v>20.48965765665859</v>
       </c>
       <c r="D12">
-        <v>6.563263695025956</v>
+        <v>5.936393804053123</v>
       </c>
       <c r="E12">
-        <v>4.970142833298998</v>
+        <v>8.608587715838567</v>
       </c>
       <c r="F12">
-        <v>81.72069656888891</v>
+        <v>25.83811216795204</v>
       </c>
       <c r="G12">
-        <v>2.032371314022747</v>
+        <v>32.75628112248267</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.407811864708151</v>
       </c>
       <c r="J12">
-        <v>6.900321571824501</v>
+        <v>10.24727882549295</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.85394727815271</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.321251287695885</v>
       </c>
       <c r="M12">
-        <v>17.81463835787659</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.87138615272056</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.0970586581505</v>
+        <v>27.42209469066602</v>
       </c>
       <c r="C13">
-        <v>19.38356490063267</v>
+        <v>20.28389910683612</v>
       </c>
       <c r="D13">
-        <v>6.544031952501859</v>
+        <v>5.65224861319964</v>
       </c>
       <c r="E13">
-        <v>4.973771270622279</v>
+        <v>8.158552407739728</v>
       </c>
       <c r="F13">
-        <v>81.50429184913179</v>
+        <v>23.8507773372606</v>
       </c>
       <c r="G13">
-        <v>2.033401484214711</v>
+        <v>29.92746991271194</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.66098532964592</v>
       </c>
       <c r="J13">
-        <v>6.895418017523093</v>
+        <v>9.689563394387521</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.96022116155211</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.253743119873905</v>
       </c>
       <c r="M13">
-        <v>17.75692286080193</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>17.14079401155278</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.7986063434977</v>
+        <v>27.29236803653319</v>
       </c>
       <c r="C14">
-        <v>19.17071627196615</v>
+        <v>20.00013204646517</v>
       </c>
       <c r="D14">
-        <v>6.481277268859984</v>
+        <v>5.439364547918114</v>
       </c>
       <c r="E14">
-        <v>4.985650233826872</v>
+        <v>7.97419504910582</v>
       </c>
       <c r="F14">
-        <v>80.79844641950281</v>
+        <v>22.39815105250457</v>
       </c>
       <c r="G14">
-        <v>2.036754186645002</v>
+        <v>27.8051134565236</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.572154848716147</v>
       </c>
       <c r="J14">
-        <v>6.879549519668974</v>
+        <v>9.303581143081836</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.40847827682656</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.282272295137513</v>
       </c>
       <c r="M14">
-        <v>17.5683767207997</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>16.51964121553643</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.61543519380054</v>
+        <v>27.17137009027884</v>
       </c>
       <c r="C15">
-        <v>19.04015449763991</v>
+        <v>19.86482473938058</v>
       </c>
       <c r="D15">
-        <v>6.442807317436563</v>
+        <v>5.37909663129374</v>
       </c>
       <c r="E15">
-        <v>4.992961848423552</v>
+        <v>7.940881892397172</v>
       </c>
       <c r="F15">
-        <v>80.36598650920698</v>
+        <v>22.02219663881068</v>
       </c>
       <c r="G15">
-        <v>2.038802803987367</v>
+        <v>27.23541625051983</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.778097279483307</v>
       </c>
       <c r="J15">
-        <v>6.869922549486137</v>
+        <v>9.212248062399238</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.30215490752738</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.295131679152218</v>
       </c>
       <c r="M15">
-        <v>17.45262820394755</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>16.32027016627429</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.55963770934565</v>
+        <v>26.29822472811296</v>
       </c>
       <c r="C16">
-        <v>18.28861309830942</v>
+        <v>19.23236818528722</v>
       </c>
       <c r="D16">
-        <v>6.221746324133571</v>
+        <v>5.296958789324532</v>
       </c>
       <c r="E16">
-        <v>5.035411705963078</v>
+        <v>7.851947359591294</v>
       </c>
       <c r="F16">
-        <v>77.88490093809106</v>
+        <v>21.88043398168731</v>
       </c>
       <c r="G16">
-        <v>2.050477452239107</v>
+        <v>26.87001512430356</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.488930542435649</v>
       </c>
       <c r="J16">
-        <v>6.816115429764849</v>
+        <v>9.248700806830264</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.54299240958951</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.241353578668965</v>
       </c>
       <c r="M16">
-        <v>16.78496189582336</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.89525236888767</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.90588485988322</v>
+        <v>25.68476252174388</v>
       </c>
       <c r="C17">
-        <v>17.82408188358101</v>
+        <v>18.89500360358927</v>
       </c>
       <c r="D17">
-        <v>6.085460665731665</v>
+        <v>5.348290187831909</v>
       </c>
       <c r="E17">
-        <v>5.061951612715295</v>
+        <v>7.856900025121388</v>
       </c>
       <c r="F17">
-        <v>76.35917771279789</v>
+        <v>22.56200206639947</v>
       </c>
       <c r="G17">
-        <v>2.057593125744654</v>
+        <v>27.76613566504801</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.729844932787103</v>
       </c>
       <c r="J17">
-        <v>6.784256667096853</v>
+        <v>9.482533363714406</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.00864882897507</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.171877025356746</v>
       </c>
       <c r="M17">
-        <v>16.37107980263907</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>15.91003870318605</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.52741989092791</v>
+        <v>25.23840259594319</v>
       </c>
       <c r="C18">
-        <v>17.55543150016251</v>
+        <v>18.78317864947239</v>
       </c>
       <c r="D18">
-        <v>6.00677791564452</v>
+        <v>5.528731662102959</v>
       </c>
       <c r="E18">
-        <v>5.07740265998726</v>
+        <v>8.083430809121534</v>
       </c>
       <c r="F18">
-        <v>75.47988004691818</v>
+        <v>24.02494035224461</v>
       </c>
       <c r="G18">
-        <v>2.061673191276713</v>
+        <v>29.8304146860402</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.515905654595425</v>
       </c>
       <c r="J18">
-        <v>6.766331183052274</v>
+        <v>9.91263907363617</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.74169763301109</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.15722573912637</v>
       </c>
       <c r="M18">
-        <v>16.13130058436364</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.30742820161198</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.39883931341176</v>
+        <v>24.96876800653854</v>
       </c>
       <c r="C19">
-        <v>17.4642034474872</v>
+        <v>18.86396327628867</v>
       </c>
       <c r="D19">
-        <v>5.980082477743633</v>
+        <v>5.80894737829441</v>
       </c>
       <c r="E19">
-        <v>5.082666325775746</v>
+        <v>8.655477524112436</v>
       </c>
       <c r="F19">
-        <v>75.18183240863826</v>
+        <v>26.00433369250417</v>
       </c>
       <c r="G19">
-        <v>2.063052838318979</v>
+        <v>32.6499977968119</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.180868142973277</v>
       </c>
       <c r="J19">
-        <v>6.76032830371929</v>
+        <v>10.47371048792793</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.67422660012345</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.29944323390523</v>
       </c>
       <c r="M19">
-        <v>16.04980598604036</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.97313638679398</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.97572622708818</v>
+        <v>25.21742059469555</v>
       </c>
       <c r="C20">
-        <v>17.87367966054528</v>
+        <v>19.47478322780644</v>
       </c>
       <c r="D20">
-        <v>6.099998007995962</v>
+        <v>6.342382286427253</v>
       </c>
       <c r="E20">
-        <v>5.059107207464849</v>
+        <v>10.01752993783555</v>
       </c>
       <c r="F20">
-        <v>76.52176565206888</v>
+        <v>29.30126987913195</v>
       </c>
       <c r="G20">
-        <v>2.056837055822091</v>
+        <v>37.37569508618106</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.327104467179601</v>
       </c>
       <c r="J20">
-        <v>6.787606296937419</v>
+        <v>11.37530296712771</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.11807510197946</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.824609819736209</v>
       </c>
       <c r="M20">
-        <v>16.41531362273129</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.33388857706163</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.88634266278657</v>
+        <v>26.74378337211716</v>
       </c>
       <c r="C21">
-        <v>19.23327255982782</v>
+        <v>20.69169532135694</v>
       </c>
       <c r="D21">
-        <v>6.499715947848062</v>
+        <v>6.634313229897081</v>
       </c>
       <c r="E21">
-        <v>4.982153733535206</v>
+        <v>10.49605806067752</v>
       </c>
       <c r="F21">
-        <v>81.00579013309783</v>
+        <v>30.58628907251209</v>
       </c>
       <c r="G21">
-        <v>2.035770489776062</v>
+        <v>39.37281772608173</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.70838890819695</v>
       </c>
       <c r="J21">
-        <v>6.884190954643363</v>
+        <v>11.63772650712523</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.28571269980754</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.019210076683404</v>
       </c>
       <c r="M21">
-        <v>17.62381018967675</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.41530805740702</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.11829681682533</v>
+        <v>27.7103977882844</v>
       </c>
       <c r="C22">
-        <v>20.11301550647922</v>
+        <v>21.44349339057311</v>
       </c>
       <c r="D22">
-        <v>6.75943761897932</v>
+        <v>6.798715087313043</v>
       </c>
       <c r="E22">
-        <v>4.933452783627728</v>
+        <v>10.7347250918166</v>
       </c>
       <c r="F22">
-        <v>83.93033665494923</v>
+        <v>31.28722511493015</v>
       </c>
       <c r="G22">
-        <v>2.021790130812764</v>
+        <v>40.48091998728646</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.945988326978269</v>
       </c>
       <c r="J22">
-        <v>6.95140840636876</v>
+        <v>11.77588610946903</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.34269336365893</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.114810068306804</v>
       </c>
       <c r="M22">
-        <v>18.40164799925012</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>20.04874252984412</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.46203586752856</v>
+        <v>27.19825511815261</v>
       </c>
       <c r="C23">
-        <v>19.64405709512222</v>
+        <v>21.0451363189116</v>
       </c>
       <c r="D23">
-        <v>6.620896535280646</v>
+        <v>6.71133169994986</v>
       </c>
       <c r="E23">
-        <v>4.959302988267734</v>
+        <v>10.60779434452603</v>
       </c>
       <c r="F23">
-        <v>82.36945281175018</v>
+        <v>30.91272778214798</v>
       </c>
       <c r="G23">
-        <v>2.029276524815912</v>
+        <v>39.88913914129188</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.819472512266309</v>
       </c>
       <c r="J23">
-        <v>6.915129207830124</v>
+        <v>11.70140867226189</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.31045946617063</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.06391283451734</v>
       </c>
       <c r="M23">
-        <v>17.98741462882155</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.7128148934936</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.94415913723077</v>
+        <v>25.17549997538729</v>
       </c>
       <c r="C24">
-        <v>17.8512614859281</v>
+        <v>19.47244999791814</v>
       </c>
       <c r="D24">
-        <v>6.09342671550271</v>
+        <v>6.372449306731492</v>
       </c>
       <c r="E24">
-        <v>5.06039256155574</v>
+        <v>10.11708969760166</v>
       </c>
       <c r="F24">
-        <v>76.44826640048487</v>
+        <v>29.50346891671495</v>
       </c>
       <c r="G24">
-        <v>2.05717890775365</v>
+        <v>37.65657179998855</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.333507592865898</v>
       </c>
       <c r="J24">
-        <v>6.786090718401459</v>
+        <v>11.43532357062612</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.22714182077211</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.868299330591539</v>
       </c>
       <c r="M24">
-        <v>16.39532125635773</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.39337197096694</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.13311646884183</v>
+        <v>22.81277568395772</v>
       </c>
       <c r="C25">
-        <v>15.86000862615961</v>
+        <v>17.63667325492097</v>
       </c>
       <c r="D25">
-        <v>5.512846434764145</v>
+        <v>5.990099841437427</v>
       </c>
       <c r="E25">
-        <v>5.176574195216614</v>
+        <v>9.566129603936391</v>
       </c>
       <c r="F25">
-        <v>69.99272938721741</v>
+        <v>28.00604842679352</v>
       </c>
       <c r="G25">
-        <v>2.086827390780939</v>
+        <v>35.27257277053142</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.792881890616197</v>
       </c>
       <c r="J25">
-        <v>6.661946521253053</v>
+        <v>11.18085068288519</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.21204317339511</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.650790164418516</v>
       </c>
       <c r="M25">
-        <v>14.61077952490021</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>16.86995698116417</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91410276621059</v>
+        <v>20.89260124468785</v>
       </c>
       <c r="C2">
-        <v>16.16232405702057</v>
+        <v>16.93713354179583</v>
       </c>
       <c r="D2">
-        <v>5.694457402208319</v>
+        <v>5.913651606823379</v>
       </c>
       <c r="E2">
-        <v>9.141693192031939</v>
+        <v>9.194640273900132</v>
       </c>
       <c r="F2">
-        <v>26.92693446145916</v>
+        <v>25.67960503535321</v>
       </c>
       <c r="G2">
-        <v>33.5453499938777</v>
+        <v>30.79696843584932</v>
       </c>
       <c r="H2">
-        <v>1.746753747552329</v>
+        <v>1.738893144523182</v>
       </c>
       <c r="J2">
-        <v>11.01971836791249</v>
+        <v>10.98649145041933</v>
       </c>
       <c r="K2">
-        <v>15.25721390419963</v>
+        <v>14.22442976210763</v>
       </c>
       <c r="L2">
-        <v>6.484655516071189</v>
+        <v>12.46436056857029</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.672022292306055</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.448077691026495</v>
       </c>
       <c r="O2">
-        <v>15.66337284337971</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.87597605364639</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.52654856917403</v>
+        <v>19.53291680366978</v>
       </c>
       <c r="C3">
-        <v>15.08531489651622</v>
+        <v>15.74561755015933</v>
       </c>
       <c r="D3">
-        <v>5.485624358910733</v>
+        <v>5.698226914173687</v>
       </c>
       <c r="E3">
-        <v>8.842444863933171</v>
+        <v>8.920685178843421</v>
       </c>
       <c r="F3">
-        <v>26.21261063866601</v>
+        <v>25.10664139404605</v>
       </c>
       <c r="G3">
-        <v>32.39709737771145</v>
+        <v>29.92280391883753</v>
       </c>
       <c r="H3">
-        <v>2.045324485454705</v>
+        <v>2.012029866256936</v>
       </c>
       <c r="J3">
-        <v>10.92593416677811</v>
+        <v>10.89411138120106</v>
       </c>
       <c r="K3">
-        <v>15.31898879423413</v>
+        <v>14.37247360637673</v>
       </c>
       <c r="L3">
-        <v>6.368176474740986</v>
+        <v>12.64416197745108</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.69770815849582</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.350100088360806</v>
       </c>
       <c r="O3">
-        <v>14.79399832034382</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.98203378058288</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.62436734379286</v>
+        <v>18.6485089720712</v>
       </c>
       <c r="C4">
-        <v>14.38523791308399</v>
+        <v>14.97042354987011</v>
       </c>
       <c r="D4">
-        <v>5.353384956316887</v>
+        <v>5.562296200254369</v>
       </c>
       <c r="E4">
-        <v>8.653069016870667</v>
+        <v>8.747652811325803</v>
       </c>
       <c r="F4">
-        <v>25.78327300161139</v>
+        <v>24.76273114696279</v>
       </c>
       <c r="G4">
-        <v>31.70490508800161</v>
+        <v>29.40408829401558</v>
       </c>
       <c r="H4">
-        <v>2.234359263416038</v>
+        <v>2.185147906140608</v>
       </c>
       <c r="J4">
-        <v>10.87561604566007</v>
+        <v>10.84032630218738</v>
       </c>
       <c r="K4">
-        <v>15.37101381365372</v>
+        <v>14.47341932262348</v>
       </c>
       <c r="L4">
-        <v>6.294698852714417</v>
+        <v>12.75802315518208</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.744790498214087</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.288261895121076</v>
       </c>
       <c r="O4">
-        <v>14.23540359397373</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.40703103482752</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.24402685929118</v>
+        <v>18.27560581232512</v>
       </c>
       <c r="C5">
-        <v>14.09014291060476</v>
+        <v>14.64349982082461</v>
       </c>
       <c r="D5">
-        <v>5.298517768006258</v>
+        <v>5.50603455576927</v>
       </c>
       <c r="E5">
-        <v>8.57449908787442</v>
+        <v>8.675955860520398</v>
       </c>
       <c r="F5">
-        <v>25.61077985446645</v>
+        <v>24.62462867643447</v>
       </c>
       <c r="G5">
-        <v>31.42635635736919</v>
+        <v>29.19732353397812</v>
       </c>
       <c r="H5">
-        <v>2.312864677641331</v>
+        <v>2.257084753984436</v>
       </c>
       <c r="J5">
-        <v>10.85688548433489</v>
+        <v>10.81912880553504</v>
       </c>
       <c r="K5">
-        <v>15.39557380592463</v>
+        <v>14.51694544230745</v>
       </c>
       <c r="L5">
-        <v>6.264258653427021</v>
+        <v>12.80530675091356</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.771526430432489</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.262636048692231</v>
       </c>
       <c r="O5">
-        <v>14.0016744969099</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.16629155009194</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.1801030488138</v>
+        <v>18.21292960697826</v>
       </c>
       <c r="C6">
-        <v>14.04054872371447</v>
+        <v>14.58854664760257</v>
       </c>
       <c r="D6">
-        <v>5.289349025686716</v>
+        <v>5.496641509804058</v>
       </c>
       <c r="E6">
-        <v>8.561368860096294</v>
+        <v>8.663979972341682</v>
       </c>
       <c r="F6">
-        <v>25.58229037400459</v>
+        <v>24.60182195669294</v>
       </c>
       <c r="G6">
-        <v>31.38032527153656</v>
+        <v>29.16327134343407</v>
       </c>
       <c r="H6">
-        <v>2.32599038347609</v>
+        <v>2.269114586638233</v>
       </c>
       <c r="J6">
-        <v>10.85388087268864</v>
+        <v>10.81565194339298</v>
       </c>
       <c r="K6">
-        <v>15.39984956485753</v>
+        <v>14.52431344786137</v>
       </c>
       <c r="L6">
-        <v>6.259173908211915</v>
+        <v>12.81321196043154</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.776411542720828</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.258355044331801</v>
       </c>
       <c r="O6">
-        <v>13.96250040758193</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.12593410951035</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.61928942297509</v>
+        <v>18.64317982497682</v>
       </c>
       <c r="C7">
-        <v>14.38129793990566</v>
+        <v>14.95494390095055</v>
       </c>
       <c r="D7">
-        <v>5.352648915326833</v>
+        <v>5.566866549721971</v>
       </c>
       <c r="E7">
-        <v>8.652015025251306</v>
+        <v>8.74804793298606</v>
       </c>
       <c r="F7">
-        <v>25.78093653632417</v>
+        <v>24.73202493136334</v>
       </c>
       <c r="G7">
-        <v>31.70113381127299</v>
+        <v>29.46794625441996</v>
       </c>
       <c r="H7">
-        <v>2.235412007405841</v>
+        <v>2.186940180085018</v>
       </c>
       <c r="J7">
-        <v>10.87535632540726</v>
+        <v>10.78659274914858</v>
       </c>
       <c r="K7">
-        <v>15.3713316768735</v>
+        <v>14.45961582119147</v>
       </c>
       <c r="L7">
-        <v>6.294290345664773</v>
+        <v>12.74649274583327</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.735468842707741</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.287045631949867</v>
       </c>
       <c r="O7">
-        <v>14.23227592186926</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.40350588346399</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.44605496578221</v>
+        <v>20.43296490608559</v>
       </c>
       <c r="C8">
-        <v>15.79898817674807</v>
+        <v>16.5012921929751</v>
       </c>
       <c r="D8">
-        <v>5.623302013847926</v>
+        <v>5.857266230325736</v>
       </c>
       <c r="E8">
-        <v>9.039692237933647</v>
+        <v>9.105715216604111</v>
       </c>
       <c r="F8">
-        <v>26.6787957287333</v>
+        <v>25.38782484325704</v>
       </c>
       <c r="G8">
-        <v>33.14694235677238</v>
+        <v>30.70657896504665</v>
       </c>
       <c r="H8">
-        <v>1.848537884909746</v>
+        <v>1.834529863275311</v>
       </c>
       <c r="J8">
-        <v>10.98584279575719</v>
+        <v>10.78000340081805</v>
       </c>
       <c r="K8">
-        <v>15.27547568937953</v>
+        <v>14.22603233180832</v>
       </c>
       <c r="L8">
-        <v>6.444896938989843</v>
+        <v>12.48836353582729</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.638848381707323</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.411907800835504</v>
       </c>
       <c r="O8">
-        <v>15.36883114783236</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.57220832110565</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.63313987383903</v>
+        <v>23.55290367773825</v>
       </c>
       <c r="C9">
-        <v>18.27393316580421</v>
+        <v>19.23136078043331</v>
       </c>
       <c r="D9">
-        <v>6.121120749446914</v>
+        <v>6.376021025423684</v>
       </c>
       <c r="E9">
-        <v>9.754637936609216</v>
+        <v>9.762774477413908</v>
       </c>
       <c r="F9">
-        <v>28.5071098594532</v>
+        <v>26.84043981960762</v>
       </c>
       <c r="G9">
-        <v>36.07182446132672</v>
+        <v>33.02596598706415</v>
       </c>
       <c r="H9">
-        <v>1.977354685421505</v>
+        <v>1.92998993932328</v>
       </c>
       <c r="J9">
-        <v>11.26237429158107</v>
+        <v>10.98491523000632</v>
       </c>
       <c r="K9">
-        <v>15.20785257164674</v>
+        <v>13.90637512453952</v>
       </c>
       <c r="L9">
-        <v>6.724964717963002</v>
+        <v>12.05337444875359</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.744968444844471</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.646827048699988</v>
       </c>
       <c r="O9">
-        <v>17.39643086083943</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.65313918917413</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.7586997890175</v>
+        <v>25.63055289003676</v>
       </c>
       <c r="C10">
-        <v>19.88760534458756</v>
+        <v>20.94231599773699</v>
       </c>
       <c r="D10">
-        <v>6.422198287400257</v>
+        <v>6.712674473974643</v>
       </c>
       <c r="E10">
-        <v>10.11783352699733</v>
+        <v>10.09125673143603</v>
       </c>
       <c r="F10">
-        <v>29.60531956433475</v>
+        <v>27.54925150816981</v>
       </c>
       <c r="G10">
-        <v>37.87005772648492</v>
+        <v>34.80701945267797</v>
       </c>
       <c r="H10">
-        <v>2.452237519751352</v>
+        <v>2.358451567981227</v>
       </c>
       <c r="J10">
-        <v>11.42422449504922</v>
+        <v>10.7982469394422</v>
       </c>
       <c r="K10">
-        <v>15.10283844303134</v>
+        <v>13.54586365671285</v>
       </c>
       <c r="L10">
-        <v>6.863214478524768</v>
+        <v>11.62442243078645</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.828947073780583</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.75184959032322</v>
       </c>
       <c r="O10">
-        <v>18.66289622900216</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.94557251942817</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.84966150320162</v>
+        <v>26.71359312738046</v>
       </c>
       <c r="C11">
-        <v>20.3919684485125</v>
+        <v>21.24644064028305</v>
       </c>
       <c r="D11">
-        <v>6.188018719712528</v>
+        <v>6.476755980235326</v>
       </c>
       <c r="E11">
-        <v>9.239927128762963</v>
+        <v>9.177314247540732</v>
       </c>
       <c r="F11">
-        <v>27.70469449993251</v>
+        <v>25.51629330401347</v>
       </c>
       <c r="G11">
-        <v>35.33001517825483</v>
+        <v>33.29613126199724</v>
       </c>
       <c r="H11">
-        <v>3.245148412555107</v>
+        <v>3.159990959691303</v>
       </c>
       <c r="J11">
-        <v>10.80885286907607</v>
+        <v>9.713683751278669</v>
       </c>
       <c r="K11">
-        <v>13.86750806150414</v>
+        <v>12.36325210537587</v>
       </c>
       <c r="L11">
-        <v>6.510408095210542</v>
+        <v>10.77864459432295</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.972967094457012</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.403792353868619</v>
       </c>
       <c r="O11">
-        <v>18.38121733027098</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.63410815348186</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.3427989881287</v>
+        <v>27.21074942274232</v>
       </c>
       <c r="C12">
-        <v>20.48965765665859</v>
+        <v>21.18307286593703</v>
       </c>
       <c r="D12">
-        <v>5.936393804053123</v>
+        <v>6.195636790377098</v>
       </c>
       <c r="E12">
-        <v>8.608587715838567</v>
+        <v>8.510126672620869</v>
       </c>
       <c r="F12">
-        <v>25.83811216795204</v>
+        <v>23.71807436967657</v>
       </c>
       <c r="G12">
-        <v>32.75628112248267</v>
+        <v>31.39096444366503</v>
       </c>
       <c r="H12">
-        <v>4.407811864708151</v>
+        <v>4.344033545823778</v>
       </c>
       <c r="J12">
-        <v>10.24727882549295</v>
+        <v>9.04620978657384</v>
       </c>
       <c r="K12">
-        <v>12.85394727815271</v>
+        <v>11.51929006787898</v>
       </c>
       <c r="L12">
-        <v>6.321251287695885</v>
+        <v>10.23563368341812</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.261808271318582</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.229396282370325</v>
       </c>
       <c r="O12">
-        <v>17.87138615272056</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.09494699152982</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.42209469066602</v>
+        <v>27.30403379194533</v>
       </c>
       <c r="C13">
-        <v>20.28389910683612</v>
+        <v>20.8529910372626</v>
       </c>
       <c r="D13">
-        <v>5.65224861319964</v>
+        <v>5.851415920646437</v>
       </c>
       <c r="E13">
-        <v>8.158552407739728</v>
+        <v>8.030461904736068</v>
       </c>
       <c r="F13">
-        <v>23.8507773372606</v>
+        <v>22.0217642586774</v>
       </c>
       <c r="G13">
-        <v>29.92746991271194</v>
+        <v>28.85353370023059</v>
       </c>
       <c r="H13">
-        <v>5.66098532964592</v>
+        <v>5.616330938331735</v>
       </c>
       <c r="J13">
-        <v>9.689563394387521</v>
+        <v>8.722913962327809</v>
       </c>
       <c r="K13">
-        <v>11.96022116155211</v>
+        <v>10.91470608020676</v>
       </c>
       <c r="L13">
-        <v>6.253743119873905</v>
+        <v>9.884463572216603</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.655142074971285</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.183778523725914</v>
       </c>
       <c r="O13">
-        <v>17.14079401155278</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.33335407205826</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.29236803653319</v>
+        <v>27.18850202146973</v>
       </c>
       <c r="C14">
-        <v>20.00013204646517</v>
+        <v>20.4959779660134</v>
       </c>
       <c r="D14">
-        <v>5.439364547918114</v>
+        <v>5.585851692632316</v>
       </c>
       <c r="E14">
-        <v>7.97419504910582</v>
+        <v>7.835386181212296</v>
       </c>
       <c r="F14">
-        <v>22.39815105250457</v>
+        <v>20.87011916429789</v>
       </c>
       <c r="G14">
-        <v>27.8051134565236</v>
+        <v>26.77296394420194</v>
       </c>
       <c r="H14">
-        <v>6.572154848716147</v>
+        <v>6.538612576092734</v>
       </c>
       <c r="J14">
-        <v>9.303581143081836</v>
+        <v>8.628758416411529</v>
       </c>
       <c r="K14">
-        <v>11.40847827682656</v>
+        <v>10.60414767292347</v>
       </c>
       <c r="L14">
-        <v>6.282272295137513</v>
+        <v>9.717326500936824</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.289533355648541</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.228747899556534</v>
       </c>
       <c r="O14">
-        <v>16.51964121553643</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.68903858161371</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.17137009027884</v>
+        <v>27.07309663369506</v>
       </c>
       <c r="C15">
-        <v>19.86482473938058</v>
+        <v>20.34890271337629</v>
       </c>
       <c r="D15">
-        <v>5.37909663129374</v>
+        <v>5.508738784924978</v>
       </c>
       <c r="E15">
-        <v>7.940881892397172</v>
+        <v>7.803840225232561</v>
       </c>
       <c r="F15">
-        <v>22.02219663881068</v>
+        <v>20.60766242425442</v>
       </c>
       <c r="G15">
-        <v>27.23541625051983</v>
+        <v>26.14465916371403</v>
       </c>
       <c r="H15">
-        <v>6.778097279483307</v>
+        <v>6.747746124185464</v>
       </c>
       <c r="J15">
-        <v>9.212248062399238</v>
+        <v>8.660489283327619</v>
       </c>
       <c r="K15">
-        <v>11.30215490752738</v>
+        <v>10.5711107489754</v>
       </c>
       <c r="L15">
-        <v>6.295131679152218</v>
+        <v>9.704323959372182</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.224927080069607</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.246445743376331</v>
       </c>
       <c r="O15">
-        <v>16.32027016627429</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.48343814527628</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.29822472811296</v>
+        <v>26.21998781082145</v>
       </c>
       <c r="C16">
-        <v>19.23236818528722</v>
+        <v>19.76680304644139</v>
       </c>
       <c r="D16">
-        <v>5.296958789324532</v>
+        <v>5.393516931957573</v>
       </c>
       <c r="E16">
-        <v>7.851947359591294</v>
+        <v>7.746686674739074</v>
       </c>
       <c r="F16">
-        <v>21.88043398168731</v>
+        <v>20.79631415822224</v>
       </c>
       <c r="G16">
-        <v>26.87001512430356</v>
+        <v>25.21823361102032</v>
       </c>
       <c r="H16">
-        <v>6.488930542435649</v>
+        <v>6.467192968980133</v>
       </c>
       <c r="J16">
-        <v>9.248700806830264</v>
+        <v>9.145936218676747</v>
       </c>
       <c r="K16">
-        <v>11.54299240958951</v>
+        <v>10.94079681711884</v>
       </c>
       <c r="L16">
-        <v>6.241353578668965</v>
+        <v>9.954113146146181</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.43226367279356</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.203590945375145</v>
       </c>
       <c r="O16">
-        <v>15.89525236888767</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>16.05388155639045</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.68476252174388</v>
+        <v>25.61395698759384</v>
       </c>
       <c r="C17">
-        <v>18.89500360358927</v>
+        <v>19.49663063921101</v>
       </c>
       <c r="D17">
-        <v>5.348290187831909</v>
+        <v>5.449755373418327</v>
       </c>
       <c r="E17">
-        <v>7.856900025121388</v>
+        <v>7.774654183541796</v>
       </c>
       <c r="F17">
-        <v>22.56200206639947</v>
+        <v>21.53522588659835</v>
       </c>
       <c r="G17">
-        <v>27.76613566504801</v>
+        <v>25.75024303842017</v>
       </c>
       <c r="H17">
-        <v>5.729844932787103</v>
+        <v>5.710371200435102</v>
       </c>
       <c r="J17">
-        <v>9.482533363714406</v>
+        <v>9.533117171507783</v>
       </c>
       <c r="K17">
-        <v>12.00864882897507</v>
+        <v>11.37744703837155</v>
       </c>
       <c r="L17">
-        <v>6.171877025356746</v>
+        <v>10.2460058699745</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.761102766479034</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.135227672628748</v>
       </c>
       <c r="O17">
-        <v>15.91003870318605</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.07775300652903</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.23840259594319</v>
+        <v>25.16530853338213</v>
       </c>
       <c r="C18">
-        <v>18.78317864947239</v>
+        <v>19.49233280973632</v>
       </c>
       <c r="D18">
-        <v>5.528731662102959</v>
+        <v>5.659615464201555</v>
       </c>
       <c r="E18">
-        <v>8.083430809121534</v>
+        <v>8.021129879683647</v>
       </c>
       <c r="F18">
-        <v>24.02494035224461</v>
+        <v>22.88359042988543</v>
       </c>
       <c r="G18">
-        <v>29.8304146860402</v>
+        <v>27.44478306052287</v>
       </c>
       <c r="H18">
-        <v>4.515905654595425</v>
+        <v>4.492971101364761</v>
       </c>
       <c r="J18">
-        <v>9.91263907363617</v>
+        <v>9.96672823183594</v>
       </c>
       <c r="K18">
-        <v>12.74169763301109</v>
+        <v>11.96784031846877</v>
       </c>
       <c r="L18">
-        <v>6.15722573912637</v>
+        <v>10.64366588436418</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.254604621730951</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.112601366029248</v>
       </c>
       <c r="O18">
-        <v>16.30742820161198</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.49804046772293</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.96876800653854</v>
+        <v>24.88561588985604</v>
       </c>
       <c r="C19">
-        <v>18.86396327628867</v>
+        <v>19.71075918531831</v>
       </c>
       <c r="D19">
-        <v>5.80894737829441</v>
+        <v>5.984745048244138</v>
       </c>
       <c r="E19">
-        <v>8.655477524112436</v>
+        <v>8.612292195798465</v>
       </c>
       <c r="F19">
-        <v>26.00433369250417</v>
+        <v>24.64190745692141</v>
       </c>
       <c r="G19">
-        <v>32.6499977968119</v>
+        <v>29.86370521054281</v>
       </c>
       <c r="H19">
-        <v>3.180868142973277</v>
+        <v>3.144999875681119</v>
       </c>
       <c r="J19">
-        <v>10.47371048792793</v>
+        <v>10.44633223066049</v>
       </c>
       <c r="K19">
-        <v>13.67422660012345</v>
+        <v>12.67953648145219</v>
       </c>
       <c r="L19">
-        <v>6.29944323390523</v>
+        <v>11.12528878470902</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.872193689632925</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.238284084432815</v>
       </c>
       <c r="O19">
-        <v>16.97313638679398</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.19590474602931</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.21742059469555</v>
+        <v>25.10292166632739</v>
       </c>
       <c r="C20">
-        <v>19.47478322780644</v>
+        <v>20.5346000708473</v>
       </c>
       <c r="D20">
-        <v>6.342382286427253</v>
+        <v>6.60661853578538</v>
       </c>
       <c r="E20">
-        <v>10.01752993783555</v>
+        <v>9.995216652418712</v>
       </c>
       <c r="F20">
-        <v>29.30126987913195</v>
+        <v>27.4394349967201</v>
       </c>
       <c r="G20">
-        <v>37.37569508618106</v>
+        <v>34.10843521661654</v>
       </c>
       <c r="H20">
-        <v>2.327104467179601</v>
+        <v>2.247754546615062</v>
       </c>
       <c r="J20">
-        <v>11.37530296712771</v>
+        <v>11.02055070468782</v>
       </c>
       <c r="K20">
-        <v>15.11807510197946</v>
+        <v>13.68133813268451</v>
       </c>
       <c r="L20">
-        <v>6.824609819736209</v>
+        <v>11.76517724233578</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.835579308130608</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.724558898722606</v>
       </c>
       <c r="O20">
-        <v>18.33388857706163</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.61112791166253</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.74378337211716</v>
+        <v>26.58458899660828</v>
       </c>
       <c r="C21">
-        <v>20.69169532135694</v>
+        <v>21.69404828134978</v>
       </c>
       <c r="D21">
-        <v>6.634313229897081</v>
+        <v>7.024057035155641</v>
       </c>
       <c r="E21">
-        <v>10.49605806067752</v>
+        <v>10.47824700623964</v>
       </c>
       <c r="F21">
-        <v>30.58628907251209</v>
+        <v>27.90433767200715</v>
       </c>
       <c r="G21">
-        <v>39.37281772608173</v>
+        <v>37.10652346956068</v>
       </c>
       <c r="H21">
-        <v>2.70838890819695</v>
+        <v>2.580113908146109</v>
       </c>
       <c r="J21">
-        <v>11.63772650712523</v>
+        <v>10.07590284959907</v>
       </c>
       <c r="K21">
-        <v>15.28571269980754</v>
+        <v>13.32614805786308</v>
       </c>
       <c r="L21">
-        <v>7.019210076683404</v>
+        <v>11.38178920530476</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.862770087070261</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.876600072183714</v>
       </c>
       <c r="O21">
-        <v>19.41530805740702</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.7108089157733</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.7103977882844</v>
+        <v>27.52290805167004</v>
       </c>
       <c r="C22">
-        <v>21.44349339057311</v>
+        <v>22.38993748680224</v>
       </c>
       <c r="D22">
-        <v>6.798715087313043</v>
+        <v>7.27288467685981</v>
       </c>
       <c r="E22">
-        <v>10.7347250918166</v>
+        <v>10.72197795625912</v>
       </c>
       <c r="F22">
-        <v>31.28722511493015</v>
+        <v>28.06058714577389</v>
       </c>
       <c r="G22">
-        <v>40.48091998728646</v>
+        <v>38.96162498449283</v>
       </c>
       <c r="H22">
-        <v>2.945988326978269</v>
+        <v>2.786602432588328</v>
       </c>
       <c r="J22">
-        <v>11.77588610946903</v>
+        <v>9.399873814381476</v>
       </c>
       <c r="K22">
-        <v>15.34269336365893</v>
+        <v>13.03120498446564</v>
       </c>
       <c r="L22">
-        <v>7.114810068306804</v>
+        <v>11.09256904956202</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.841414046051945</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.945782491786237</v>
       </c>
       <c r="O22">
-        <v>20.04874252984412</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.35196239572237</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.19825511815261</v>
+        <v>27.02646822972813</v>
       </c>
       <c r="C23">
-        <v>21.0451363189116</v>
+        <v>22.04253826274257</v>
       </c>
       <c r="D23">
-        <v>6.71133169994986</v>
+        <v>7.12807531006439</v>
       </c>
       <c r="E23">
-        <v>10.60779434452603</v>
+        <v>10.58839412694676</v>
       </c>
       <c r="F23">
-        <v>30.91272778214798</v>
+        <v>28.04161239621049</v>
       </c>
       <c r="G23">
-        <v>39.88913914129188</v>
+        <v>37.8210147784331</v>
       </c>
       <c r="H23">
-        <v>2.819472512266309</v>
+        <v>2.678053408575864</v>
       </c>
       <c r="J23">
-        <v>11.70140867226189</v>
+        <v>9.876523216600685</v>
       </c>
       <c r="K23">
-        <v>15.31045946617063</v>
+        <v>13.22456925924832</v>
       </c>
       <c r="L23">
-        <v>7.06391283451734</v>
+        <v>11.26922678855944</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.883240425419404</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.910643354509137</v>
       </c>
       <c r="O23">
-        <v>19.7128148934936</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.01290725962389</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.17549997538729</v>
+        <v>25.0601530406681</v>
       </c>
       <c r="C24">
-        <v>19.47244999791814</v>
+        <v>20.54653113327472</v>
       </c>
       <c r="D24">
-        <v>6.372449306731492</v>
+        <v>6.640913948219922</v>
       </c>
       <c r="E24">
-        <v>10.11708969760166</v>
+        <v>10.09707536552243</v>
       </c>
       <c r="F24">
-        <v>29.50346891671495</v>
+        <v>27.62376750346284</v>
       </c>
       <c r="G24">
-        <v>37.65657179998855</v>
+        <v>34.34112860654235</v>
       </c>
       <c r="H24">
-        <v>2.333507592865898</v>
+        <v>2.253803861248822</v>
       </c>
       <c r="J24">
-        <v>11.43532357062612</v>
+        <v>11.07936917608297</v>
       </c>
       <c r="K24">
-        <v>15.22714182077211</v>
+        <v>13.76924862478343</v>
       </c>
       <c r="L24">
-        <v>6.868299330591539</v>
+        <v>11.82713088717223</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.906329841905695</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.766549420972175</v>
       </c>
       <c r="O24">
-        <v>18.39337197096694</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.6737458183181</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.81277568395772</v>
+        <v>22.75084134387315</v>
       </c>
       <c r="C25">
-        <v>17.63667325492097</v>
+        <v>18.54234072200582</v>
       </c>
       <c r="D25">
-        <v>5.990099841437427</v>
+        <v>6.232264887975958</v>
       </c>
       <c r="E25">
-        <v>9.566129603936391</v>
+        <v>9.587429212821057</v>
       </c>
       <c r="F25">
-        <v>28.00604842679352</v>
+        <v>26.47919967167175</v>
       </c>
       <c r="G25">
-        <v>35.27257277053142</v>
+        <v>32.29684546125589</v>
       </c>
       <c r="H25">
-        <v>1.792881890616197</v>
+        <v>1.762856170816322</v>
       </c>
       <c r="J25">
-        <v>11.18085068288519</v>
+        <v>10.99959977427882</v>
       </c>
       <c r="K25">
-        <v>15.21204317339511</v>
+        <v>14.00276238423281</v>
       </c>
       <c r="L25">
-        <v>6.650790164418516</v>
+        <v>12.18284386033735</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.703449719812941</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.585740142448652</v>
       </c>
       <c r="O25">
-        <v>16.86995698116417</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>17.11389136170541</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
